--- a/Data/2020_11_05.xlsx
+++ b/Data/2020_11_05.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
-  <si>
-    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-11-04 08:00 Uhr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+  <si>
+    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-11-05 08:00 Uhr</t>
   </si>
   <si>
     <t xml:space="preserve">Quelle: BAG/MT</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">Weiblich: Anzahl hospitalisiert</t>
   </si>
   <si>
-    <t xml:space="preserve">Geschlecht unbekannt*: Anzahl hospitalisiert</t>
+    <t xml:space="preserve">Unbekannt</t>
   </si>
   <si>
     <t xml:space="preserve">Total hospitalisiert: Anzahl</t>
@@ -301,13 +301,13 @@
     <t xml:space="preserve">Inzidenz Quarantäne nach Einreise aus Risikoland</t>
   </si>
   <si>
-    <t xml:space="preserve">1685</t>
+    <t xml:space="preserve">1608</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">1140</t>
+    <t xml:space="preserve">1042</t>
   </si>
   <si>
     <t xml:space="preserve">Keine aktuellen Daten gemeldet</t>
@@ -331,13 +331,13 @@
     <t xml:space="preserve">859</t>
   </si>
   <si>
-    <t xml:space="preserve">840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">436</t>
+    <t xml:space="preserve">2907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
   </si>
   <si>
     <t xml:space="preserve">252</t>
@@ -373,6 +373,12 @@
     <t xml:space="preserve">473</t>
   </si>
   <si>
+    <t xml:space="preserve">1505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3635</t>
+  </si>
+  <si>
     <t xml:space="preserve">2200</t>
   </si>
   <si>
@@ -437,6 +443,15 @@
   </si>
   <si>
     <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1404</t>
   </si>
   <si>
     <t xml:space="preserve">503</t>
@@ -3555,10 +3570,10 @@
         <v>31403</v>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
@@ -3581,7 +3596,7 @@
         <v>3</v>
       </c>
       <c r="E128" t="n">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -3604,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -3627,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -3650,7 +3665,7 @@
         <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -3673,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>4014</v>
+        <v>4015</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -3696,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -3719,7 +3734,7 @@
         <v>5</v>
       </c>
       <c r="E134" t="n">
-        <v>4020</v>
+        <v>4021</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
@@ -3742,7 +3757,7 @@
         <v>8</v>
       </c>
       <c r="E135" t="n">
-        <v>4028</v>
+        <v>4029</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -3765,7 +3780,7 @@
         <v>6</v>
       </c>
       <c r="E136" t="n">
-        <v>4034</v>
+        <v>4035</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -3788,7 +3803,7 @@
         <v>5</v>
       </c>
       <c r="E137" t="n">
-        <v>4039</v>
+        <v>4040</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -3811,7 +3826,7 @@
         <v>5</v>
       </c>
       <c r="E138" t="n">
-        <v>4044</v>
+        <v>4045</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -3834,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -3857,7 +3872,7 @@
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -3880,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -3903,7 +3918,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -3926,7 +3941,7 @@
         <v>3</v>
       </c>
       <c r="E143" t="n">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="F143" t="n">
         <v>2</v>
@@ -3949,7 +3964,7 @@
         <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -3972,7 +3987,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -3995,7 +4010,7 @@
         <v>10</v>
       </c>
       <c r="E146" t="n">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4018,7 +4033,7 @@
         <v>12</v>
       </c>
       <c r="E147" t="n">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4041,7 +4056,7 @@
         <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
@@ -4064,7 +4079,7 @@
         <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4087,7 +4102,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -4110,7 +4125,7 @@
         <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -4133,7 +4148,7 @@
         <v>6</v>
       </c>
       <c r="E152" t="n">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
@@ -4156,7 +4171,7 @@
         <v>6</v>
       </c>
       <c r="E153" t="n">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4179,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4202,7 +4217,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="F155" t="n">
         <v>2</v>
@@ -4225,7 +4240,7 @@
         <v>6</v>
       </c>
       <c r="E156" t="n">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -4248,7 +4263,7 @@
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4271,7 +4286,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4294,7 +4309,7 @@
         <v>14</v>
       </c>
       <c r="E159" t="n">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -4317,7 +4332,7 @@
         <v>10</v>
       </c>
       <c r="E160" t="n">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -4340,7 +4355,7 @@
         <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -4363,7 +4378,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -4386,7 +4401,7 @@
         <v>12</v>
       </c>
       <c r="E163" t="n">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -4409,7 +4424,7 @@
         <v>14</v>
       </c>
       <c r="E164" t="n">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -4432,7 +4447,7 @@
         <v>5</v>
       </c>
       <c r="E165" t="n">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -4455,7 +4470,7 @@
         <v>9</v>
       </c>
       <c r="E166" t="n">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="F166" t="n">
         <v>2</v>
@@ -4478,7 +4493,7 @@
         <v>6</v>
       </c>
       <c r="E167" t="n">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -4501,7 +4516,7 @@
         <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -4524,7 +4539,7 @@
         <v>5</v>
       </c>
       <c r="E169" t="n">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -4547,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -4570,7 +4585,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -4593,7 +4608,7 @@
         <v>12</v>
       </c>
       <c r="E172" t="n">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -4616,7 +4631,7 @@
         <v>6</v>
       </c>
       <c r="E173" t="n">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -4639,7 +4654,7 @@
         <v>8</v>
       </c>
       <c r="E174" t="n">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -4662,7 +4677,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -4685,7 +4700,7 @@
         <v>8</v>
       </c>
       <c r="E176" t="n">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -4705,10 +4720,10 @@
         <v>37338</v>
       </c>
       <c r="D177" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E177" t="n">
-        <v>4313</v>
+        <v>4315</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -4731,7 +4746,7 @@
         <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>4318</v>
+        <v>4320</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -4754,7 +4769,7 @@
         <v>9</v>
       </c>
       <c r="E179" t="n">
-        <v>4327</v>
+        <v>4329</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -4777,7 +4792,7 @@
         <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>4334</v>
+        <v>4336</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -4800,7 +4815,7 @@
         <v>8</v>
       </c>
       <c r="E181" t="n">
-        <v>4342</v>
+        <v>4344</v>
       </c>
       <c r="F181" t="n">
         <v>3</v>
@@ -4823,7 +4838,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>4349</v>
+        <v>4351</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -4846,7 +4861,7 @@
         <v>9</v>
       </c>
       <c r="E183" t="n">
-        <v>4358</v>
+        <v>4360</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
@@ -4869,7 +4884,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>4365</v>
+        <v>4367</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -4892,7 +4907,7 @@
         <v>6</v>
       </c>
       <c r="E185" t="n">
-        <v>4371</v>
+        <v>4373</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -4915,7 +4930,7 @@
         <v>8</v>
       </c>
       <c r="E186" t="n">
-        <v>4379</v>
+        <v>4381</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -4938,7 +4953,7 @@
         <v>8</v>
       </c>
       <c r="E187" t="n">
-        <v>4387</v>
+        <v>4389</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -4961,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="E188" t="n">
-        <v>4391</v>
+        <v>4393</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -4984,7 +4999,7 @@
         <v>6</v>
       </c>
       <c r="E189" t="n">
-        <v>4397</v>
+        <v>4399</v>
       </c>
       <c r="F189" t="n">
         <v>2</v>
@@ -5007,7 +5022,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>4404</v>
+        <v>4406</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -5030,7 +5045,7 @@
         <v>5</v>
       </c>
       <c r="E191" t="n">
-        <v>4409</v>
+        <v>4411</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -5053,7 +5068,7 @@
         <v>6</v>
       </c>
       <c r="E192" t="n">
-        <v>4415</v>
+        <v>4417</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -5076,7 +5091,7 @@
         <v>5</v>
       </c>
       <c r="E193" t="n">
-        <v>4420</v>
+        <v>4422</v>
       </c>
       <c r="F193" t="n">
         <v>2</v>
@@ -5099,7 +5114,7 @@
         <v>9</v>
       </c>
       <c r="E194" t="n">
-        <v>4429</v>
+        <v>4431</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -5122,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>4431</v>
+        <v>4433</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -5145,7 +5160,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>4438</v>
+        <v>4440</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -5168,7 +5183,7 @@
         <v>6</v>
       </c>
       <c r="E197" t="n">
-        <v>4444</v>
+        <v>4446</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -5191,7 +5206,7 @@
         <v>10</v>
       </c>
       <c r="E198" t="n">
-        <v>4454</v>
+        <v>4456</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -5214,7 +5229,7 @@
         <v>11</v>
       </c>
       <c r="E199" t="n">
-        <v>4465</v>
+        <v>4467</v>
       </c>
       <c r="F199" t="n">
         <v>3</v>
@@ -5237,7 +5252,7 @@
         <v>11</v>
       </c>
       <c r="E200" t="n">
-        <v>4476</v>
+        <v>4478</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -5260,7 +5275,7 @@
         <v>10</v>
       </c>
       <c r="E201" t="n">
-        <v>4486</v>
+        <v>4488</v>
       </c>
       <c r="F201" t="n">
         <v>2</v>
@@ -5283,7 +5298,7 @@
         <v>8</v>
       </c>
       <c r="E202" t="n">
-        <v>4494</v>
+        <v>4496</v>
       </c>
       <c r="F202" t="n">
         <v>2</v>
@@ -5306,7 +5321,7 @@
         <v>8</v>
       </c>
       <c r="E203" t="n">
-        <v>4502</v>
+        <v>4504</v>
       </c>
       <c r="F203" t="n">
         <v>3</v>
@@ -5329,7 +5344,7 @@
         <v>14</v>
       </c>
       <c r="E204" t="n">
-        <v>4516</v>
+        <v>4518</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -5352,7 +5367,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>4523</v>
+        <v>4525</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -5372,10 +5387,10 @@
         <v>46094</v>
       </c>
       <c r="D206" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E206" t="n">
-        <v>4534</v>
+        <v>4538</v>
       </c>
       <c r="F206" t="n">
         <v>7</v>
@@ -5395,10 +5410,10 @@
         <v>46600</v>
       </c>
       <c r="D207" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E207" t="n">
-        <v>4554</v>
+        <v>4559</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -5421,7 +5436,7 @@
         <v>12</v>
       </c>
       <c r="E208" t="n">
-        <v>4566</v>
+        <v>4571</v>
       </c>
       <c r="F208" t="n">
         <v>4</v>
@@ -5444,7 +5459,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="n">
-        <v>4579</v>
+        <v>4584</v>
       </c>
       <c r="F209" t="n">
         <v>3</v>
@@ -5467,7 +5482,7 @@
         <v>11</v>
       </c>
       <c r="E210" t="n">
-        <v>4590</v>
+        <v>4595</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -5490,7 +5505,7 @@
         <v>10</v>
       </c>
       <c r="E211" t="n">
-        <v>4600</v>
+        <v>4605</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -5513,7 +5528,7 @@
         <v>9</v>
       </c>
       <c r="E212" t="n">
-        <v>4609</v>
+        <v>4614</v>
       </c>
       <c r="F212" t="n">
         <v>3</v>
@@ -5536,7 +5551,7 @@
         <v>21</v>
       </c>
       <c r="E213" t="n">
-        <v>4630</v>
+        <v>4635</v>
       </c>
       <c r="F213" t="n">
         <v>5</v>
@@ -5559,7 +5574,7 @@
         <v>13</v>
       </c>
       <c r="E214" t="n">
-        <v>4643</v>
+        <v>4648</v>
       </c>
       <c r="F214" t="n">
         <v>4</v>
@@ -5579,10 +5594,10 @@
         <v>50054</v>
       </c>
       <c r="D215" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E215" t="n">
-        <v>4662</v>
+        <v>4668</v>
       </c>
       <c r="F215" t="n">
         <v>2</v>
@@ -5605,7 +5620,7 @@
         <v>11</v>
       </c>
       <c r="E216" t="n">
-        <v>4673</v>
+        <v>4679</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -5628,7 +5643,7 @@
         <v>12</v>
       </c>
       <c r="E217" t="n">
-        <v>4685</v>
+        <v>4691</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -5648,10 +5663,10 @@
         <v>50935</v>
       </c>
       <c r="D218" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E218" t="n">
-        <v>4704</v>
+        <v>4711</v>
       </c>
       <c r="F218" t="n">
         <v>3</v>
@@ -5671,10 +5686,10 @@
         <v>51360</v>
       </c>
       <c r="D219" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E219" t="n">
-        <v>4712</v>
+        <v>4720</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -5694,10 +5709,10 @@
         <v>51746</v>
       </c>
       <c r="D220" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E220" t="n">
-        <v>4725</v>
+        <v>4734</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -5720,7 +5735,7 @@
         <v>16</v>
       </c>
       <c r="E221" t="n">
-        <v>4741</v>
+        <v>4750</v>
       </c>
       <c r="F221" t="n">
         <v>3</v>
@@ -5743,7 +5758,7 @@
         <v>12</v>
       </c>
       <c r="E222" t="n">
-        <v>4753</v>
+        <v>4762</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -5766,7 +5781,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>4760</v>
+        <v>4769</v>
       </c>
       <c r="F223" t="n">
         <v>2</v>
@@ -5786,10 +5801,10 @@
         <v>52756</v>
       </c>
       <c r="D224" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E224" t="n">
-        <v>4777</v>
+        <v>4787</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -5812,7 +5827,7 @@
         <v>16</v>
       </c>
       <c r="E225" t="n">
-        <v>4793</v>
+        <v>4803</v>
       </c>
       <c r="F225" t="n">
         <v>3</v>
@@ -5832,10 +5847,10 @@
         <v>53571</v>
       </c>
       <c r="D226" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E226" t="n">
-        <v>4817</v>
+        <v>4828</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -5858,7 +5873,7 @@
         <v>19</v>
       </c>
       <c r="E227" t="n">
-        <v>4836</v>
+        <v>4847</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -5872,22 +5887,22 @@
         <v>44105</v>
       </c>
       <c r="B228" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C228" t="n">
-        <v>54711</v>
+        <v>54712</v>
       </c>
       <c r="D228" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E228" t="n">
-        <v>4851</v>
+        <v>4863</v>
       </c>
       <c r="F228" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G228" t="n">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="229">
@@ -5895,22 +5910,22 @@
         <v>44106</v>
       </c>
       <c r="B229" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C229" t="n">
-        <v>55390</v>
+        <v>55392</v>
       </c>
       <c r="D229" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E229" t="n">
-        <v>4871</v>
+        <v>4884</v>
       </c>
       <c r="F229" t="n">
         <v>1</v>
       </c>
       <c r="G229" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="230">
@@ -5921,16 +5936,16 @@
         <v>513</v>
       </c>
       <c r="C230" t="n">
-        <v>55903</v>
+        <v>55905</v>
       </c>
       <c r="D230" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E230" t="n">
-        <v>4885</v>
+        <v>4899</v>
       </c>
       <c r="F230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
         <v>1800</v>
@@ -5944,13 +5959,13 @@
         <v>314</v>
       </c>
       <c r="C231" t="n">
-        <v>56217</v>
+        <v>56219</v>
       </c>
       <c r="D231" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E231" t="n">
-        <v>4897</v>
+        <v>4912</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
@@ -5967,13 +5982,13 @@
         <v>1020</v>
       </c>
       <c r="C232" t="n">
-        <v>57237</v>
+        <v>57239</v>
       </c>
       <c r="D232" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E232" t="n">
-        <v>4911</v>
+        <v>4927</v>
       </c>
       <c r="F232" t="n">
         <v>2</v>
@@ -5990,13 +6005,13 @@
         <v>1097</v>
       </c>
       <c r="C233" t="n">
-        <v>58334</v>
+        <v>58336</v>
       </c>
       <c r="D233" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E233" t="n">
-        <v>4939</v>
+        <v>4957</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
@@ -6013,13 +6028,13 @@
         <v>1379</v>
       </c>
       <c r="C234" t="n">
-        <v>59713</v>
+        <v>59715</v>
       </c>
       <c r="D234" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E234" t="n">
-        <v>4973</v>
+        <v>4993</v>
       </c>
       <c r="F234" t="n">
         <v>2</v>
@@ -6036,13 +6051,13 @@
         <v>1474</v>
       </c>
       <c r="C235" t="n">
-        <v>61187</v>
+        <v>61189</v>
       </c>
       <c r="D235" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E235" t="n">
-        <v>5015</v>
+        <v>5037</v>
       </c>
       <c r="F235" t="n">
         <v>3</v>
@@ -6059,13 +6074,13 @@
         <v>1725</v>
       </c>
       <c r="C236" t="n">
-        <v>62912</v>
+        <v>62914</v>
       </c>
       <c r="D236" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E236" t="n">
-        <v>5058</v>
+        <v>5081</v>
       </c>
       <c r="F236" t="n">
         <v>3</v>
@@ -6079,16 +6094,16 @@
         <v>44114</v>
       </c>
       <c r="B237" t="n">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C237" t="n">
-        <v>64164</v>
+        <v>64167</v>
       </c>
       <c r="D237" t="n">
         <v>29</v>
       </c>
       <c r="E237" t="n">
-        <v>5087</v>
+        <v>5110</v>
       </c>
       <c r="F237" t="n">
         <v>3</v>
@@ -6105,13 +6120,13 @@
         <v>808</v>
       </c>
       <c r="C238" t="n">
-        <v>64972</v>
+        <v>64975</v>
       </c>
       <c r="D238" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E238" t="n">
-        <v>5129</v>
+        <v>5153</v>
       </c>
       <c r="F238" t="n">
         <v>3</v>
@@ -6128,13 +6143,13 @@
         <v>2564</v>
       </c>
       <c r="C239" t="n">
-        <v>67536</v>
+        <v>67539</v>
       </c>
       <c r="D239" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E239" t="n">
-        <v>5199</v>
+        <v>5226</v>
       </c>
       <c r="F239" t="n">
         <v>5</v>
@@ -6151,13 +6166,13 @@
         <v>2693</v>
       </c>
       <c r="C240" t="n">
-        <v>70229</v>
+        <v>70232</v>
       </c>
       <c r="D240" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E240" t="n">
-        <v>5258</v>
+        <v>5286</v>
       </c>
       <c r="F240" t="n">
         <v>5</v>
@@ -6174,13 +6189,13 @@
         <v>3003</v>
       </c>
       <c r="C241" t="n">
-        <v>73232</v>
+        <v>73235</v>
       </c>
       <c r="D241" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E241" t="n">
-        <v>5332</v>
+        <v>5361</v>
       </c>
       <c r="F241" t="n">
         <v>4</v>
@@ -6194,16 +6209,16 @@
         <v>44119</v>
       </c>
       <c r="B242" t="n">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="C242" t="n">
-        <v>76638</v>
+        <v>76642</v>
       </c>
       <c r="D242" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E242" t="n">
-        <v>5409</v>
+        <v>5440</v>
       </c>
       <c r="F242" t="n">
         <v>5</v>
@@ -6220,13 +6235,13 @@
         <v>3691</v>
       </c>
       <c r="C243" t="n">
-        <v>80329</v>
+        <v>80333</v>
       </c>
       <c r="D243" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E243" t="n">
-        <v>5495</v>
+        <v>5530</v>
       </c>
       <c r="F243" t="n">
         <v>8</v>
@@ -6243,13 +6258,13 @@
         <v>2381</v>
       </c>
       <c r="C244" t="n">
-        <v>82710</v>
+        <v>82714</v>
       </c>
       <c r="D244" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E244" t="n">
-        <v>5592</v>
+        <v>5628</v>
       </c>
       <c r="F244" t="n">
         <v>6</v>
@@ -6266,13 +6281,13 @@
         <v>1788</v>
       </c>
       <c r="C245" t="n">
-        <v>84498</v>
+        <v>84502</v>
       </c>
       <c r="D245" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E245" t="n">
-        <v>5658</v>
+        <v>5693</v>
       </c>
       <c r="F245" t="n">
         <v>5</v>
@@ -6286,16 +6301,16 @@
         <v>44123</v>
       </c>
       <c r="B246" t="n">
-        <v>5412</v>
+        <v>5411</v>
       </c>
       <c r="C246" t="n">
-        <v>89910</v>
+        <v>89913</v>
       </c>
       <c r="D246" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E246" t="n">
-        <v>5795</v>
+        <v>5835</v>
       </c>
       <c r="F246" t="n">
         <v>12</v>
@@ -6309,16 +6324,16 @@
         <v>44124</v>
       </c>
       <c r="B247" t="n">
-        <v>5674</v>
+        <v>5675</v>
       </c>
       <c r="C247" t="n">
-        <v>95584</v>
+        <v>95588</v>
       </c>
       <c r="D247" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E247" t="n">
-        <v>5921</v>
+        <v>5968</v>
       </c>
       <c r="F247" t="n">
         <v>10</v>
@@ -6332,16 +6347,16 @@
         <v>44125</v>
       </c>
       <c r="B248" t="n">
-        <v>6470</v>
+        <v>6468</v>
       </c>
       <c r="C248" t="n">
-        <v>102054</v>
+        <v>102056</v>
       </c>
       <c r="D248" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E248" t="n">
-        <v>6030</v>
+        <v>6086</v>
       </c>
       <c r="F248" t="n">
         <v>11</v>
@@ -6355,16 +6370,16 @@
         <v>44126</v>
       </c>
       <c r="B249" t="n">
-        <v>6778</v>
+        <v>6777</v>
       </c>
       <c r="C249" t="n">
-        <v>108832</v>
+        <v>108833</v>
       </c>
       <c r="D249" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E249" t="n">
-        <v>6164</v>
+        <v>6222</v>
       </c>
       <c r="F249" t="n">
         <v>19</v>
@@ -6381,13 +6396,13 @@
         <v>7531</v>
       </c>
       <c r="C250" t="n">
-        <v>116363</v>
+        <v>116364</v>
       </c>
       <c r="D250" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E250" t="n">
-        <v>6321</v>
+        <v>6387</v>
       </c>
       <c r="F250" t="n">
         <v>18</v>
@@ -6404,13 +6419,13 @@
         <v>4682</v>
       </c>
       <c r="C251" t="n">
-        <v>121045</v>
+        <v>121046</v>
       </c>
       <c r="D251" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E251" t="n">
-        <v>6451</v>
+        <v>6521</v>
       </c>
       <c r="F251" t="n">
         <v>21</v>
@@ -6424,16 +6439,16 @@
         <v>44129</v>
       </c>
       <c r="B252" t="n">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="C252" t="n">
-        <v>124263</v>
+        <v>124265</v>
       </c>
       <c r="D252" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E252" t="n">
-        <v>6605</v>
+        <v>6680</v>
       </c>
       <c r="F252" t="n">
         <v>16</v>
@@ -6447,16 +6462,16 @@
         <v>44130</v>
       </c>
       <c r="B253" t="n">
-        <v>10056</v>
+        <v>10057</v>
       </c>
       <c r="C253" t="n">
-        <v>134319</v>
+        <v>134322</v>
       </c>
       <c r="D253" t="n">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E253" t="n">
-        <v>6785</v>
+        <v>6876</v>
       </c>
       <c r="F253" t="n">
         <v>13</v>
@@ -6473,19 +6488,19 @@
         <v>9693</v>
       </c>
       <c r="C254" t="n">
-        <v>144012</v>
+        <v>144015</v>
       </c>
       <c r="D254" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E254" t="n">
-        <v>6938</v>
+        <v>7037</v>
       </c>
       <c r="F254" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G254" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="255">
@@ -6493,22 +6508,22 @@
         <v>44132</v>
       </c>
       <c r="B255" t="n">
-        <v>9318</v>
+        <v>9319</v>
       </c>
       <c r="C255" t="n">
-        <v>153330</v>
+        <v>153334</v>
       </c>
       <c r="D255" t="n">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E255" t="n">
-        <v>7108</v>
+        <v>7225</v>
       </c>
       <c r="F255" t="n">
         <v>36</v>
       </c>
       <c r="G255" t="n">
-        <v>2044</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="256">
@@ -6516,22 +6531,22 @@
         <v>44133</v>
       </c>
       <c r="B256" t="n">
-        <v>8931</v>
+        <v>8932</v>
       </c>
       <c r="C256" t="n">
-        <v>162261</v>
+        <v>162266</v>
       </c>
       <c r="D256" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E256" t="n">
-        <v>7258</v>
+        <v>7390</v>
       </c>
       <c r="F256" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G256" t="n">
-        <v>2092</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="257">
@@ -6539,22 +6554,22 @@
         <v>44134</v>
       </c>
       <c r="B257" t="n">
-        <v>8876</v>
+        <v>8883</v>
       </c>
       <c r="C257" t="n">
-        <v>171137</v>
+        <v>171149</v>
       </c>
       <c r="D257" t="n">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="E257" t="n">
-        <v>7426</v>
+        <v>7589</v>
       </c>
       <c r="F257" t="n">
         <v>33</v>
       </c>
       <c r="G257" t="n">
-        <v>2125</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="258">
@@ -6562,22 +6577,22 @@
         <v>44135</v>
       </c>
       <c r="B258" t="n">
-        <v>5040</v>
+        <v>5123</v>
       </c>
       <c r="C258" t="n">
-        <v>176177</v>
+        <v>176272</v>
       </c>
       <c r="D258" t="n">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="E258" t="n">
-        <v>7524</v>
+        <v>7706</v>
       </c>
       <c r="F258" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G258" t="n">
-        <v>2169</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="259">
@@ -6585,22 +6600,22 @@
         <v>44136</v>
       </c>
       <c r="B259" t="n">
-        <v>3551</v>
+        <v>3610</v>
       </c>
       <c r="C259" t="n">
-        <v>179728</v>
+        <v>179882</v>
       </c>
       <c r="D259" t="n">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="E259" t="n">
-        <v>7617</v>
+        <v>7838</v>
       </c>
       <c r="F259" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G259" t="n">
-        <v>2211</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="260">
@@ -6608,22 +6623,22 @@
         <v>44137</v>
       </c>
       <c r="B260" t="n">
-        <v>8542</v>
+        <v>10261</v>
       </c>
       <c r="C260" t="n">
-        <v>188270</v>
+        <v>190143</v>
       </c>
       <c r="D260" t="n">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="E260" t="n">
-        <v>7712</v>
+        <v>8007</v>
       </c>
       <c r="F260" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G260" t="n">
-        <v>2254</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="261">
@@ -6631,22 +6646,22 @@
         <v>44138</v>
       </c>
       <c r="B261" t="n">
-        <v>4097</v>
+        <v>8358</v>
       </c>
       <c r="C261" t="n">
-        <v>192367</v>
+        <v>198501</v>
       </c>
       <c r="D261" t="n">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="E261" t="n">
-        <v>7749</v>
+        <v>8125</v>
       </c>
       <c r="F261" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="G261" t="n">
-        <v>2273</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="262">
@@ -6654,22 +6669,45 @@
         <v>44139</v>
       </c>
       <c r="B262" t="n">
-        <v>9</v>
+        <v>3998</v>
       </c>
       <c r="C262" t="n">
-        <v>192376</v>
+        <v>202499</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E262" t="n">
-        <v>7749</v>
+        <v>8146</v>
       </c>
       <c r="F262" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G262" t="n">
-        <v>2275</v>
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B263" t="n">
+        <v>5</v>
+      </c>
+      <c r="C263" t="n">
+        <v>202504</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1</v>
+      </c>
+      <c r="E263" t="n">
+        <v>8147</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="n">
+        <v>2337</v>
       </c>
     </row>
   </sheetData>
@@ -6759,31 +6797,31 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>793</v>
+        <v>836</v>
       </c>
       <c r="C8" t="n">
         <v>0.8</v>
       </c>
       <c r="D8" t="n">
-        <v>176.2</v>
+        <v>185.7</v>
       </c>
       <c r="E8" t="n">
-        <v>665</v>
+        <v>702</v>
       </c>
       <c r="F8" t="n">
         <v>0.7</v>
       </c>
       <c r="G8" t="n">
-        <v>155.9</v>
+        <v>164.5</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J8" t="n">
-        <v>1459</v>
+        <v>1539</v>
       </c>
       <c r="K8" t="n">
         <v>0.8</v>
@@ -6794,34 +6832,34 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>7249</v>
+        <v>7737</v>
       </c>
       <c r="C9" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="D9" t="n">
-        <v>1660.5</v>
+        <v>1772.3</v>
       </c>
       <c r="E9" t="n">
-        <v>7204</v>
+        <v>7659</v>
       </c>
       <c r="F9" t="n">
         <v>7.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1750.7</v>
+        <v>1861.3</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>7.7</v>
+        <v>9.1</v>
       </c>
       <c r="J9" t="n">
-        <v>14457</v>
+        <v>15401</v>
       </c>
       <c r="K9" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="10">
@@ -6829,34 +6867,34 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>18189</v>
+        <v>19004</v>
       </c>
       <c r="C10" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="D10" t="n">
-        <v>3386</v>
+        <v>3537.7</v>
       </c>
       <c r="E10" t="n">
-        <v>18644</v>
+        <v>19574</v>
       </c>
       <c r="F10" t="n">
         <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>3636.4</v>
+        <v>3817.8</v>
       </c>
       <c r="H10" t="n">
         <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>17.3</v>
+        <v>16.4</v>
       </c>
       <c r="J10" t="n">
-        <v>36842</v>
+        <v>38587</v>
       </c>
       <c r="K10" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="11">
@@ -6864,34 +6902,34 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>16831</v>
+        <v>17667</v>
       </c>
       <c r="C11" t="n">
         <v>17.8</v>
       </c>
       <c r="D11" t="n">
-        <v>2700.4</v>
+        <v>2834.5</v>
       </c>
       <c r="E11" t="n">
-        <v>16736</v>
+        <v>17592</v>
       </c>
       <c r="F11" t="n">
         <v>17.1</v>
       </c>
       <c r="G11" t="n">
-        <v>2740.1</v>
+        <v>2880.3</v>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="J11" t="n">
-        <v>33581</v>
+        <v>35274</v>
       </c>
       <c r="K11" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="12">
@@ -6899,31 +6937,31 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>14714</v>
+        <v>15479</v>
       </c>
       <c r="C12" t="n">
         <v>15.6</v>
       </c>
       <c r="D12" t="n">
-        <v>2430.7</v>
+        <v>2557.1</v>
       </c>
       <c r="E12" t="n">
-        <v>16108</v>
+        <v>17004</v>
       </c>
       <c r="F12" t="n">
         <v>16.5</v>
       </c>
       <c r="G12" t="n">
-        <v>2691.1</v>
+        <v>2840.8</v>
       </c>
       <c r="H12" t="n">
         <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>17.3</v>
+        <v>16.4</v>
       </c>
       <c r="J12" t="n">
-        <v>30831</v>
+        <v>32492</v>
       </c>
       <c r="K12" t="n">
         <v>16</v>
@@ -6934,31 +6972,31 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>16030</v>
+        <v>16844</v>
       </c>
       <c r="C13" t="n">
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>2448.6</v>
+        <v>2572.9</v>
       </c>
       <c r="E13" t="n">
-        <v>16552</v>
+        <v>17438</v>
       </c>
       <c r="F13" t="n">
         <v>16.9</v>
       </c>
       <c r="G13" t="n">
-        <v>2568.1</v>
+        <v>2705.6</v>
       </c>
       <c r="H13" t="n">
         <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>13.5</v>
+        <v>12.7</v>
       </c>
       <c r="J13" t="n">
-        <v>32589</v>
+        <v>34289</v>
       </c>
       <c r="K13" t="n">
         <v>16.9</v>
@@ -6969,31 +7007,31 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>9660</v>
+        <v>10175</v>
       </c>
       <c r="C14" t="n">
         <v>10.2</v>
       </c>
       <c r="D14" t="n">
-        <v>2062</v>
+        <v>2172</v>
       </c>
       <c r="E14" t="n">
-        <v>8778</v>
+        <v>9226</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1813</v>
+        <v>1905.5</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>9.6</v>
+        <v>10.9</v>
       </c>
       <c r="J14" t="n">
-        <v>18443</v>
+        <v>19407</v>
       </c>
       <c r="K14" t="n">
         <v>9.6</v>
@@ -7004,31 +7042,31 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>6361</v>
+        <v>6701</v>
       </c>
       <c r="C15" t="n">
         <v>6.7</v>
       </c>
       <c r="D15" t="n">
-        <v>1882.3</v>
+        <v>1982.9</v>
       </c>
       <c r="E15" t="n">
-        <v>5893</v>
+        <v>6261</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="G15" t="n">
-        <v>1523.4</v>
+        <v>1618.5</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
-        <v>12257</v>
+        <v>12965</v>
       </c>
       <c r="K15" t="n">
         <v>6.4</v>
@@ -7039,22 +7077,22 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>4556</v>
+        <v>4798</v>
       </c>
       <c r="C16" t="n">
         <v>4.8</v>
       </c>
       <c r="D16" t="n">
-        <v>2613.5</v>
+        <v>2752.4</v>
       </c>
       <c r="E16" t="n">
-        <v>7275</v>
+        <v>7666</v>
       </c>
       <c r="F16" t="n">
         <v>7.4</v>
       </c>
       <c r="G16" t="n">
-        <v>2590.8</v>
+        <v>2730</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -7063,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11831</v>
+        <v>12464</v>
       </c>
       <c r="K16" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="17">
@@ -7074,17 +7112,17 @@
         <v>34</v>
       </c>
       <c r="B17" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="n">
@@ -7172,16 +7210,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="n">
-        <v>8856</v>
+        <v>9350</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.3</v>
+        <v>1363.3</v>
       </c>
       <c r="E8" t="n">
-        <v>4443</v>
+        <v>4641</v>
       </c>
       <c r="F8" t="n">
-        <v>647.8</v>
+        <v>676.7</v>
       </c>
     </row>
     <row r="9">
@@ -7189,16 +7227,16 @@
         <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C9" t="n">
-        <v>2374.8</v>
+        <v>2474</v>
       </c>
       <c r="E9" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F9" t="n">
-        <v>1209.1</v>
+        <v>1184.3</v>
       </c>
     </row>
     <row r="10">
@@ -7206,16 +7244,16 @@
         <v>43</v>
       </c>
       <c r="B10" t="n">
-        <v>894</v>
+        <v>942</v>
       </c>
       <c r="C10" t="n">
-        <v>1612.4</v>
+        <v>1699</v>
       </c>
       <c r="E10" t="n">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="F10" t="n">
-        <v>863.9</v>
+        <v>885.6</v>
       </c>
     </row>
     <row r="11">
@@ -7223,16 +7261,16 @@
         <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>16083</v>
+        <v>16909</v>
       </c>
       <c r="C11" t="n">
-        <v>1547.2</v>
+        <v>1626.7</v>
       </c>
       <c r="E11" t="n">
-        <v>8642</v>
+        <v>8838</v>
       </c>
       <c r="F11" t="n">
-        <v>831.4</v>
+        <v>850.2</v>
       </c>
     </row>
     <row r="12">
@@ -7240,16 +7278,16 @@
         <v>45</v>
       </c>
       <c r="B12" t="n">
-        <v>3348</v>
+        <v>3506</v>
       </c>
       <c r="C12" t="n">
-        <v>1156.6</v>
+        <v>1211.2</v>
       </c>
       <c r="E12" t="n">
-        <v>1547</v>
+        <v>1622</v>
       </c>
       <c r="F12" t="n">
-        <v>534.4</v>
+        <v>560.3</v>
       </c>
     </row>
     <row r="13">
@@ -7257,16 +7295,16 @@
         <v>46</v>
       </c>
       <c r="B13" t="n">
-        <v>3059</v>
+        <v>3157</v>
       </c>
       <c r="C13" t="n">
-        <v>1562</v>
+        <v>1612</v>
       </c>
       <c r="E13" t="n">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="F13" t="n">
-        <v>562.2</v>
+        <v>565.8</v>
       </c>
     </row>
     <row r="14">
@@ -7274,16 +7312,16 @@
         <v>47</v>
       </c>
       <c r="B14" t="n">
-        <v>673</v>
+        <v>703</v>
       </c>
       <c r="C14" t="n">
-        <v>1753.6</v>
+        <v>1831.8</v>
       </c>
       <c r="E14" t="n">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F14" t="n">
-        <v>1003.2</v>
+        <v>984.9</v>
       </c>
     </row>
     <row r="15">
@@ -7291,16 +7329,16 @@
         <v>48</v>
       </c>
       <c r="B15" t="n">
-        <v>11991</v>
+        <v>12876</v>
       </c>
       <c r="C15" t="n">
-        <v>3726.4</v>
+        <v>4001.5</v>
       </c>
       <c r="E15" t="n">
-        <v>7045</v>
+        <v>7534</v>
       </c>
       <c r="F15" t="n">
-        <v>2189.4</v>
+        <v>2341.3</v>
       </c>
     </row>
     <row r="16">
@@ -7308,16 +7346,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>25751</v>
+        <v>27149</v>
       </c>
       <c r="C16" t="n">
-        <v>5108</v>
+        <v>5385.3</v>
       </c>
       <c r="E16" t="n">
-        <v>12570</v>
+        <v>13273</v>
       </c>
       <c r="F16" t="n">
-        <v>2493.4</v>
+        <v>2632.9</v>
       </c>
     </row>
     <row r="17">
@@ -7325,16 +7363,16 @@
         <v>50</v>
       </c>
       <c r="B17" t="n">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="C17" t="n">
-        <v>1394.4</v>
+        <v>1475.7</v>
       </c>
       <c r="E17" t="n">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F17" t="n">
-        <v>623.3</v>
+        <v>662.7</v>
       </c>
     </row>
     <row r="18">
@@ -7342,16 +7380,16 @@
         <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>2984</v>
+        <v>3129</v>
       </c>
       <c r="C18" t="n">
-        <v>1499.3</v>
+        <v>1572.2</v>
       </c>
       <c r="E18" t="n">
-        <v>1281</v>
+        <v>1313</v>
       </c>
       <c r="F18" t="n">
-        <v>643.7</v>
+        <v>659.7</v>
       </c>
     </row>
     <row r="19">
@@ -7359,16 +7397,16 @@
         <v>52</v>
       </c>
       <c r="B19" t="n">
-        <v>2520</v>
+        <v>2706</v>
       </c>
       <c r="C19" t="n">
-        <v>3424.7</v>
+        <v>3677.4</v>
       </c>
       <c r="E19" t="n">
-        <v>1444</v>
+        <v>1506</v>
       </c>
       <c r="F19" t="n">
-        <v>1962.4</v>
+        <v>2046.6</v>
       </c>
     </row>
     <row r="20">
@@ -7376,16 +7414,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>5695</v>
+        <v>6007</v>
       </c>
       <c r="C20" t="n">
-        <v>1378.5</v>
+        <v>1454.1</v>
       </c>
       <c r="E20" t="n">
-        <v>3205</v>
+        <v>3319</v>
       </c>
       <c r="F20" t="n">
-        <v>775.8</v>
+        <v>803.4</v>
       </c>
     </row>
     <row r="21">
@@ -7393,16 +7431,16 @@
         <v>54</v>
       </c>
       <c r="B21" t="n">
-        <v>5221</v>
+        <v>5719</v>
       </c>
       <c r="C21" t="n">
-        <v>2958.1</v>
+        <v>3240.3</v>
       </c>
       <c r="E21" t="n">
-        <v>2784</v>
+        <v>3113</v>
       </c>
       <c r="F21" t="n">
-        <v>1577.4</v>
+        <v>1763.8</v>
       </c>
     </row>
     <row r="22">
@@ -7410,16 +7448,16 @@
         <v>55</v>
       </c>
       <c r="B22" t="n">
-        <v>535</v>
+        <v>576</v>
       </c>
       <c r="C22" t="n">
-        <v>1241.7</v>
+        <v>1336.8</v>
       </c>
       <c r="E22" t="n">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="F22" t="n">
-        <v>577.9</v>
+        <v>640.6</v>
       </c>
     </row>
     <row r="23">
@@ -7427,16 +7465,16 @@
         <v>56</v>
       </c>
       <c r="B23" t="n">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="C23" t="n">
-        <v>1318.2</v>
+        <v>1376.2</v>
       </c>
       <c r="E23" t="n">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F23" t="n">
-        <v>632.7</v>
+        <v>669.7</v>
       </c>
     </row>
     <row r="24">
@@ -7444,16 +7482,16 @@
         <v>57</v>
       </c>
       <c r="B24" t="n">
-        <v>9002</v>
+        <v>9494</v>
       </c>
       <c r="C24" t="n">
-        <v>1762.6</v>
+        <v>1858.9</v>
       </c>
       <c r="E24" t="n">
-        <v>5005</v>
+        <v>5105</v>
       </c>
       <c r="F24" t="n">
-        <v>980</v>
+        <v>999.5</v>
       </c>
     </row>
     <row r="25">
@@ -7461,16 +7499,16 @@
         <v>58</v>
       </c>
       <c r="B25" t="n">
-        <v>851</v>
+        <v>894</v>
       </c>
       <c r="C25" t="n">
-        <v>1033.4</v>
+        <v>1085.6</v>
       </c>
       <c r="E25" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="F25" t="n">
-        <v>576.8</v>
+        <v>586.5</v>
       </c>
     </row>
     <row r="26">
@@ -7478,16 +7516,16 @@
         <v>59</v>
       </c>
       <c r="B26" t="n">
-        <v>3097</v>
+        <v>3280</v>
       </c>
       <c r="C26" t="n">
-        <v>1125.2</v>
+        <v>1191.7</v>
       </c>
       <c r="E26" t="n">
-        <v>1625</v>
+        <v>1709</v>
       </c>
       <c r="F26" t="n">
-        <v>590.4</v>
+        <v>620.9</v>
       </c>
     </row>
     <row r="27">
@@ -7495,16 +7533,16 @@
         <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>3603</v>
+        <v>3708</v>
       </c>
       <c r="C27" t="n">
-        <v>2245.1</v>
+        <v>2310.6</v>
       </c>
       <c r="E27" t="n">
-        <v>1641</v>
+        <v>1572</v>
       </c>
       <c r="F27" t="n">
-        <v>1022.6</v>
+        <v>979.6</v>
       </c>
     </row>
     <row r="28">
@@ -7512,16 +7550,16 @@
         <v>61</v>
       </c>
       <c r="B28" t="n">
-        <v>3451</v>
+        <v>3641</v>
       </c>
       <c r="C28" t="n">
-        <v>1234.5</v>
+        <v>1302.5</v>
       </c>
       <c r="E28" t="n">
-        <v>1919</v>
+        <v>1952</v>
       </c>
       <c r="F28" t="n">
-        <v>686.5</v>
+        <v>698.3</v>
       </c>
     </row>
     <row r="29">
@@ -7529,16 +7567,16 @@
         <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>8778</v>
+        <v>9146</v>
       </c>
       <c r="C29" t="n">
-        <v>2497.4</v>
+        <v>2602.1</v>
       </c>
       <c r="E29" t="n">
-        <v>3819</v>
+        <v>3952</v>
       </c>
       <c r="F29" t="n">
-        <v>1086.5</v>
+        <v>1124.4</v>
       </c>
     </row>
     <row r="30">
@@ -7546,16 +7584,16 @@
         <v>63</v>
       </c>
       <c r="B30" t="n">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="C30" t="n">
-        <v>1411.3</v>
+        <v>1457.6</v>
       </c>
       <c r="E30" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F30" t="n">
-        <v>673</v>
+        <v>675.7</v>
       </c>
     </row>
     <row r="31">
@@ -7563,16 +7601,16 @@
         <v>64</v>
       </c>
       <c r="B31" t="n">
-        <v>30139</v>
+        <v>31665</v>
       </c>
       <c r="C31" t="n">
-        <v>3743.5</v>
+        <v>3933.1</v>
       </c>
       <c r="E31" t="n">
-        <v>14077</v>
+        <v>14811</v>
       </c>
       <c r="F31" t="n">
-        <v>1748.5</v>
+        <v>1839.7</v>
       </c>
     </row>
     <row r="32">
@@ -7580,16 +7618,16 @@
         <v>65</v>
       </c>
       <c r="B32" t="n">
-        <v>15249</v>
+        <v>15928</v>
       </c>
       <c r="C32" t="n">
-        <v>4413.3</v>
+        <v>4609.8</v>
       </c>
       <c r="E32" t="n">
-        <v>8834</v>
+        <v>8845</v>
       </c>
       <c r="F32" t="n">
-        <v>2556.7</v>
+        <v>2559.9</v>
       </c>
     </row>
     <row r="33">
@@ -7597,16 +7635,16 @@
         <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>1919</v>
+        <v>2014</v>
       </c>
       <c r="C33" t="n">
-        <v>1503.4</v>
+        <v>1577.9</v>
       </c>
       <c r="E33" t="n">
-        <v>871</v>
+        <v>900</v>
       </c>
       <c r="F33" t="n">
-        <v>682.4</v>
+        <v>705.1</v>
       </c>
     </row>
     <row r="34">
@@ -7614,16 +7652,16 @@
         <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>26710</v>
+        <v>27950</v>
       </c>
       <c r="C34" t="n">
-        <v>1735.2</v>
+        <v>1815.8</v>
       </c>
       <c r="E34" t="n">
-        <v>12407</v>
+        <v>12740</v>
       </c>
       <c r="F34" t="n">
-        <v>806</v>
+        <v>827.7</v>
       </c>
     </row>
     <row r="35">
@@ -7631,16 +7669,16 @@
         <v>68</v>
       </c>
       <c r="B35" t="n">
-        <v>192376</v>
+        <v>202504</v>
       </c>
       <c r="C35" t="n">
-        <v>2225.4</v>
+        <v>2342.6</v>
       </c>
       <c r="E35" t="n">
-        <v>96783</v>
+        <v>100443</v>
       </c>
       <c r="F35" t="n">
-        <v>1119.6</v>
+        <v>1161.9</v>
       </c>
     </row>
     <row r="37">
@@ -7719,25 +7757,25 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F8" t="n">
-        <v>7.8</v>
+        <v>8.2</v>
       </c>
       <c r="G8" t="n">
-        <v>8.7</v>
+        <v>9.3</v>
       </c>
       <c r="H8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -7745,25 +7783,25 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F9" t="n">
-        <v>9.3</v>
+        <v>9.8</v>
       </c>
       <c r="G9" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="10">
@@ -7771,25 +7809,25 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F10" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="H10" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="11">
@@ -7797,25 +7835,25 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C11" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="F11" t="n">
-        <v>22.4</v>
+        <v>23.2</v>
       </c>
       <c r="G11" t="n">
-        <v>23.7</v>
+        <v>24.5</v>
       </c>
       <c r="H11" t="n">
-        <v>21.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="12">
@@ -7823,25 +7861,25 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C12" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="F12" t="n">
-        <v>42.4</v>
+        <v>44.4</v>
       </c>
       <c r="G12" t="n">
-        <v>51</v>
+        <v>53.5</v>
       </c>
       <c r="H12" t="n">
-        <v>33.7</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="13">
@@ -7849,25 +7887,25 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="C13" t="n">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1050</v>
+        <v>1099</v>
       </c>
       <c r="F13" t="n">
-        <v>80.8</v>
+        <v>84.6</v>
       </c>
       <c r="G13" t="n">
-        <v>101.6</v>
+        <v>106.8</v>
       </c>
       <c r="H13" t="n">
-        <v>59.7</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="14">
@@ -7875,25 +7913,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="C14" t="n">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1398</v>
+        <v>1455</v>
       </c>
       <c r="F14" t="n">
-        <v>146.7</v>
+        <v>152.7</v>
       </c>
       <c r="G14" t="n">
-        <v>198.5</v>
+        <v>207.1</v>
       </c>
       <c r="H14" t="n">
-        <v>96.2</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="15">
@@ -7901,25 +7939,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>1203</v>
+        <v>1269</v>
       </c>
       <c r="C15" t="n">
-        <v>795</v>
+        <v>838</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1998</v>
+        <v>2107</v>
       </c>
       <c r="F15" t="n">
-        <v>275.7</v>
+        <v>290.7</v>
       </c>
       <c r="G15" t="n">
-        <v>356</v>
+        <v>375.5</v>
       </c>
       <c r="H15" t="n">
-        <v>205.5</v>
+        <v>216.6</v>
       </c>
     </row>
     <row r="16">
@@ -7927,25 +7965,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>1265</v>
+        <v>1339</v>
       </c>
       <c r="C16" t="n">
-        <v>1165</v>
+        <v>1232</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2430</v>
+        <v>2571</v>
       </c>
       <c r="F16" t="n">
-        <v>533.9</v>
+        <v>564.9</v>
       </c>
       <c r="G16" t="n">
-        <v>725.7</v>
+        <v>768.1</v>
       </c>
       <c r="H16" t="n">
-        <v>414.9</v>
+        <v>438.7</v>
       </c>
     </row>
     <row r="17">
@@ -8123,22 +8161,22 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G12" t="n">
         <v>0.8</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
@@ -8172,7 +8210,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C14" t="n">
         <v>39</v>
@@ -8181,13 +8219,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="G14" t="n">
-        <v>26</v>
+        <v>26.7</v>
       </c>
       <c r="H14" t="n">
         <v>8.1</v>
@@ -8198,25 +8236,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C15" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="F15" t="n">
-        <v>62.9</v>
+        <v>64.8</v>
       </c>
       <c r="G15" t="n">
-        <v>90.5</v>
+        <v>92.6</v>
       </c>
       <c r="H15" t="n">
-        <v>38.8</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="16">
@@ -8224,25 +8262,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="C16" t="n">
-        <v>766</v>
+        <v>792</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1593</v>
+        <v>1637</v>
       </c>
       <c r="F16" t="n">
-        <v>350</v>
+        <v>359.7</v>
       </c>
       <c r="G16" t="n">
-        <v>474.4</v>
+        <v>484.7</v>
       </c>
       <c r="H16" t="n">
-        <v>272.8</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18">
@@ -8320,7 +8358,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
@@ -8332,13 +8370,13 @@
         <v>96</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>245.682333471849</v>
+        <v>234.455306957111</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>166.218314633773</v>
+        <v>151.929371796835</v>
       </c>
     </row>
     <row r="9">
@@ -8444,7 +8482,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C13" t="s">
         <v>104</v>
@@ -8456,13 +8494,13 @@
         <v>106</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>428.912808153428</v>
+        <v>1484.3446825024</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>990.584342640061</v>
+        <v>467.719205081596</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>222.626171851065</v>
+        <v>107.228202038357</v>
       </c>
     </row>
     <row r="14">
@@ -8594,20 +8632,26 @@
         <v>52</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>2045.28158295282</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>4939.93259404218</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -8617,13 +8661,13 @@
         <v>44138</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>532.532920216886</v>
@@ -8643,13 +8687,13 @@
         <v>44138</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>922.40050766023</v>
@@ -8689,13 +8733,13 @@
         <v>44138</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>340.100184550488</v>
@@ -8735,13 +8779,13 @@
         <v>44138</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>310.875795404867</v>
@@ -8761,13 +8805,13 @@
         <v>44138</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>430.159093468775</v>
@@ -8787,13 +8831,13 @@
         <v>44138</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>1008.22532402792</v>
@@ -8813,13 +8857,13 @@
         <v>44138</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>486.143653839963</v>
@@ -8839,13 +8883,13 @@
         <v>44138</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>392.32867982395</v>
@@ -8882,20 +8926,26 @@
         <v>64</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>888.090642381424</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>558.68974957086</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>174.388707958534</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -8925,13 +8975,13 @@
         <v>44138</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>394.070917096254</v>
@@ -8951,13 +9001,13 @@
         <v>44138</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>520.439817446525</v>
